--- a/Modele/test.xlsx
+++ b/Modele/test.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -525,48 +571,62 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -574,162 +634,202 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -799,86 +899,106 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-675</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -944,124 +1064,154 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="inlineStr">
@@ -1069,48 +1219,58 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1131,7 +1291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,6 +1306,9 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -1179,86 +1342,106 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="inlineStr">
@@ -1266,48 +1449,58 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1327,7 +1520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,7 +1535,32 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1370,161 +1588,209 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" s="4" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:F6"/>
